--- a/xlsx/惠普公司_intext.xlsx
+++ b/xlsx/惠普公司_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="665">
   <si>
     <t>惠普公司</t>
   </si>
@@ -29,19 +29,19 @@
     <t>普惠</t>
   </si>
   <si>
-    <t>政策_政策_美國_惠普公司</t>
+    <t>政策_政策_美国_惠普公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E7%A5%A8%E4%BB%A3%E8%99%9F</t>
   </si>
   <si>
-    <t>股票代號</t>
+    <t>股票代号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E8%AD%89%E5%88%B8%E4%BA%A4%E6%98%93%E6%89%80</t>
   </si>
   <si>
-    <t>紐約證券交易所</t>
+    <t>纽约证券交易所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/S%26P_500</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E8%BE%A6%E4%BA%BA</t>
   </si>
   <si>
-    <t>創辦人</t>
+    <t>创办人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E6%83%A0%E5%88%A9%E7%89%B9</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A1%9B%C2%B7%E6%99%AE%E5%85%8B%E5%BE%B7</t>
   </si>
   <si>
-    <t>大衛·普克德</t>
+    <t>大卫·普克德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E6%A0%BC%C2%B7%E6%83%A0%E7%89%B9%E6%9B%BC</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E7%BE%85%E5%A5%A7%E5%A4%9A_(%E7%BE%8E%E5%9C%8B%E5%8A%A0%E5%B7%9E)</t>
   </si>
   <si>
-    <t>帕羅奧多 (美國加州)</t>
+    <t>帕罗奥多 (美国加州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A7%E4%B8%9A</t>
@@ -101,13 +101,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%87%9F%E6%A5%AD%E9%A1%8D</t>
   </si>
   <si>
-    <t>營業額</t>
+    <t>营业额</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A8%85%E5%89%8D%E6%81%AF%E5%89%8D%E5%88%A9%E6%BD%A4</t>
   </si>
   <si>
-    <t>稅前息前利潤</t>
+    <t>税前息前利润</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%B6%A6</t>
@@ -119,25 +119,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E7%94%A2</t>
   </si>
   <si>
-    <t>資產</t>
+    <t>资产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E6%9D%B1%E6%AC%8A%E7%9B%8A</t>
   </si>
   <si>
-    <t>股東權益</t>
+    <t>股东权益</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E7%BE%85%E5%A5%A7%E5%9C%96_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>帕羅奧圖 (加利福尼亞州)</t>
+    <t>帕罗奥图 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%A8%E5%9C%8B%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>跨國公司</t>
+    <t>跨国公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%8A%80</t>
@@ -149,13 +149,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%9D%A6%E7%A6%8F%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>斯坦福大學</t>
+    <t>斯坦福大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>加利福尼亞州</t>
+    <t>加利福尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BD%A6%E5%BA%93</t>
@@ -173,19 +173,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A%E7%A7%91%E6%8A%80</t>
   </si>
   <si>
-    <t>資訊科技</t>
+    <t>资讯科技</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%8D%B7%E5%80%AB</t>
   </si>
   <si>
-    <t>安捷倫</t>
+    <t>安捷伦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E6%9F%8F%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>康柏電腦</t>
+    <t>康柏电脑</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/WinRunner</t>
@@ -269,13 +269,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E5%9F%9F%E5%90%8D%E7%A8%B1</t>
   </si>
   <si>
-    <t>網域名稱</t>
+    <t>网域名称</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E8%8F%AF%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>清華大學</t>
+    <t>清华大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E5%8D%8E%E6%8E%A7%E8%82%A1</t>
@@ -287,13 +287,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%AB%E5%85%89%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>紫光集團</t>
+    <t>紫光集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%85%A7%E8%88%87%E7%A7%91%E6%8A%80</t>
   </si>
   <si>
-    <t>慧與科技</t>
+    <t>慧与科技</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E5%AD%90%E6%95%B0%E6%8D%AE%E7%B3%BB%E7%BB%9F</t>
@@ -311,7 +311,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%96%E5%90%88%E8%B3%87%E7%B6%93%E7%87%9F%E4%BC%81%E6%A5%AD</t>
   </si>
   <si>
-    <t>中外合資經營企業</t>
+    <t>中外合资经营企业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%A4%A7%E9%99%86</t>
@@ -377,13 +377,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3</t>
   </si>
   <si>
-    <t>台灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E5%8C%97%E5%B8%82</t>
   </si>
   <si>
-    <t>臺北市</t>
+    <t>台北市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Pentium_II</t>
@@ -401,7 +401,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%94%A2%E5%AF%A6%E6%A5%AD%E5%BB%BA%E8%A8%AD</t>
   </si>
   <si>
-    <t>國產實業建設</t>
+    <t>国产实业建设</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:DJIA</t>
@@ -425,7 +425,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%8B%E6%9E%9C%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>蘋果公司</t>
+    <t>苹果公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E7%9B%9B</t>
@@ -437,7 +437,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%8B%E9%80%9A</t>
   </si>
   <si>
-    <t>美國運通</t>
+    <t>美国运通</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Visa</t>
@@ -461,7 +461,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E4%BD%9B%E9%BE%8D</t>
   </si>
   <si>
-    <t>雪佛龍</t>
+    <t>雪佛龙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%9D%E7%A7%91%E7%B3%BB%E7%BB%9F</t>
@@ -521,7 +521,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BC%B7%E7%94%9F%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>強生公司</t>
+    <t>强生公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%A0%B9%E5%A4%A7%E9%80%9A</t>
@@ -539,7 +539,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%98%E5%85%8B%E8%97%A5%E5%BB%A0</t>
   </si>
   <si>
-    <t>默克藥廠</t>
+    <t>默克药厂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%BD%AF</t>
@@ -551,7 +551,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BC%9D%E7%91%9E</t>
   </si>
   <si>
-    <t>輝瑞</t>
+    <t>辉瑞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%9D%E6%B4%81</t>
@@ -563,13 +563,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%85%E8%A1%8C%E5%AE%B6%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>旅行家集團</t>
+    <t>旅行家集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%81%A5%E5%BA%B7%E4%BF%9D%E9%9A%AA</t>
   </si>
   <si>
-    <t>聯合健康保險</t>
+    <t>联合健康保险</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E6%8A%80%E6%9C%AF%E5%85%AC%E5%8F%B8</t>
@@ -581,7 +581,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E8%A8%8A</t>
   </si>
   <si>
-    <t>威訊</t>
+    <t>威讯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E5%B0%94%E7%8E%9B</t>
@@ -599,7 +599,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E9%A6%B3%E4%BA%9E</t>
   </si>
   <si>
-    <t>奧馳亞</t>
+    <t>奥驰亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%A4%AB%E9%A3%9F%E5%93%81</t>
@@ -611,7 +611,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%9A%9B%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>美國國際集團</t>
+    <t>美国国际集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%83%9F%E8%8D%89%E5%85%AC%E5%8F%B8</t>
@@ -659,7 +659,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E5%90%88%E7%A2%B3%E5%8C%96%E7%89%A9</t>
   </si>
   <si>
-    <t>美國聯合碳化物</t>
+    <t>美国联合碳化物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/AT%26T</t>
@@ -671,7 +671,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>美國銀行</t>
+    <t>美国银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E6%81%AF%E6%8A%80%E6%9C%AF</t>
@@ -701,19 +701,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E4%BA%8C%E5%8D%81%E5%A4%A7%E5%8D%8A%E5%B0%8E%E9%AB%94%E5%BB%A0%E5%95%86</t>
   </si>
   <si>
-    <t>全球二十大半導體廠商</t>
+    <t>全球二十大半导体厂商</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B2%BB%E9%9B%BB%E5%AD%90%E7%94%A2%E5%93%81</t>
   </si>
   <si>
-    <t>消費電子產品</t>
+    <t>消费电子产品</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E5%8B%95%E8%A3%9D%E7%BD%AE</t>
   </si>
   <si>
-    <t>行動裝置</t>
+    <t>行动装置</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E6%98%9F%E7%94%B5%E5%AD%90</t>
@@ -725,13 +725,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%82%BA</t>
   </si>
   <si>
-    <t>華為</t>
+    <t>华为</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E5%B0%BC%E7%A7%BB%E5%8B%95%E9%80%9A%E4%BF%A1</t>
   </si>
   <si>
-    <t>索尼移動通信</t>
+    <t>索尼移动通信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8F%E8%BE%BE%E7%94%B5</t>
@@ -743,7 +743,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%A2%A9</t>
   </si>
   <si>
-    <t>華碩</t>
+    <t>华硕</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%89%98%E7%BD%97%E6%8B%89%E7%A7%BB%E5%8A%A8</t>
@@ -761,7 +761,7 @@
     <t>https://zh.wikipedia.org/wiki/LG%E9%9B%BB%E5%AD%90</t>
   </si>
   <si>
-    <t>LG電子</t>
+    <t>LG电子</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/TCL</t>
@@ -815,7 +815,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E5%8F%AF%E8%A6%96</t>
   </si>
   <si>
-    <t>富可視</t>
+    <t>富可视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AA%E4%BA%BA%E7%94%B5%E8%84%91</t>
@@ -875,25 +875,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%B4%BB%E6%B5%B7%E7%A7%91%E6%8A%80%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>鴻海科技集團</t>
+    <t>鸿海科技集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E6%99%BA%E5%BA%B7%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>富智康集團</t>
+    <t>富智康集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E9%81%94%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>廣達電腦</t>
+    <t>广达电脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%81%E5%AF%B6%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>仁寶電腦</t>
+    <t>仁宝电脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%AC%E5%88%9B%E8%B5%84%E9%80%9A</t>
@@ -905,19 +905,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A5%AD%E9%81%94%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>英業達集團</t>
+    <t>英业达集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E7%A2%A9%E8%81%AF%E5%90%88%E7%A7%91%E6%8A%80</t>
   </si>
   <si>
-    <t>和碩聯合科技</t>
+    <t>和硕联合科技</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%89%E5%89%B5%E5%8A%9B</t>
   </si>
   <si>
-    <t>偉創力</t>
+    <t>伟创力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Celestica</t>
@@ -959,7 +959,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E9%9B%BB%E6%B0%A3</t>
   </si>
   <si>
-    <t>日本電氣</t>
+    <t>日本电气</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%B1%E5%83%8F</t>
@@ -977,9 +977,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E6%98%9F%E9%9B%BB%E5%AD%90</t>
   </si>
   <si>
-    <t>三星電子</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%BA%B7</t>
   </si>
   <si>
@@ -1001,7 +998,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%9E%97%E5%B7%B4%E6%96%AF</t>
   </si>
   <si>
-    <t>奧林巴斯</t>
+    <t>奥林巴斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AF%E5%B0%BC%E5%8D%A1%E7%BE%8E%E8%83%BD%E8%BE%BE</t>
@@ -1031,7 +1028,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E5%B7%A5%E6%84%9B%E6%99%AE%E7%94%9F</t>
   </si>
   <si>
-    <t>精工愛普生</t>
+    <t>精工爱普生</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%BD%E4%B9%90</t>
@@ -1043,7 +1040,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%AB%8B%E5%85%89%E9%9B%BB</t>
   </si>
   <si>
-    <t>大立光電</t>
+    <t>大立光电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%98%E5%82%A8%E8%AE%BE%E5%A4%87</t>
@@ -1067,13 +1064,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E9%A8%B0%E9%9B%BB%E5%AD%90</t>
   </si>
   <si>
-    <t>威騰電子</t>
+    <t>威腾电子</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E7%AB%8B%E8%A3%BD%E4%BD%9C%E6%89%80</t>
   </si>
   <si>
-    <t>日立製作所</t>
+    <t>日立制作所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%93%E5%AE%89%E4%BF%A1</t>
@@ -1085,7 +1082,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%B5%A1%E5%99%A8%E6%A2%B0%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>網絡器械公司</t>
+    <t>网络器械公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B2%E9%AA%A8%E6%96%87%E5%85%AC%E5%8F%B8</t>
@@ -1097,7 +1094,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%AE%E8%A9%A2</t>
   </si>
   <si>
-    <t>諮詢</t>
+    <t>谘询</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E5%88%A4</t>
@@ -1115,7 +1112,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BA%90%E8%A8%8A</t>
   </si>
   <si>
-    <t>源訊</t>
+    <t>源讯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E6%80%9D%E8%89%BE%E4%BC%A6%E6%B1%89%E5%AF%86%E5%B0%94%E9%A1%BF%E6%8E%A7%E8%82%A1%E5%85%AC%E5%8F%B8</t>
@@ -1127,7 +1124,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E6%8D%B7</t>
   </si>
   <si>
-    <t>凱捷</t>
+    <t>凯捷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/CGI_Group</t>
@@ -1157,7 +1154,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%BE%B7%E6%8B%89%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>英德拉系統</t>
+    <t>英德拉系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%AD%9A%E7%91%9F%E6%96%AF</t>
@@ -1169,7 +1166,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E9%9B%BB%E4%BF%A1%E9%9B%BB%E8%A9%B1</t>
   </si>
   <si>
-    <t>日本電信電話</t>
+    <t>日本电信电话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wipro</t>
@@ -1199,13 +1196,10 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%9D%E7%A7%91%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>思科系統</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8A%B7%E5%94%AE%E6%99%82%E9%BB%9E%E6%83%85%E5%A0%B1%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>銷售時點情報系統</t>
+    <t>销售时点情报系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NCR%E5%85%AC%E5%8F%B8</t>
@@ -1217,9 +1211,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E8%8A%9D</t>
   </si>
   <si>
-    <t>東芝</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Network_equipment_provider</t>
   </si>
   <si>
@@ -1229,7 +1220,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%8D%A1%E7%89%B9-%E6%9C%97%E8%A8%8A</t>
   </si>
   <si>
-    <t>阿爾卡特-朗訊</t>
+    <t>阿尔卡特-朗讯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E7%BE%8E%E4%BA%9A</t>
@@ -1241,19 +1232,16 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%AB%8B%E4%BF%A1</t>
   </si>
   <si>
-    <t>愛立信</t>
+    <t>爱立信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E4%B8%BA</t>
   </si>
   <si>
-    <t>华为</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9E%BB%E5%8D%9A%E7%B6%B2%E8%B7%AF</t>
   </si>
   <si>
-    <t>瞻博網路</t>
+    <t>瞻博网路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%89%98%E7%BD%97%E6%8B%89%E8%A7%A3%E5%86%B3%E6%96%B9%E6%A1%88</t>
@@ -1301,7 +1289,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%B7%9E%E5%84%80%E5%99%A8</t>
   </si>
   <si>
-    <t>德州儀器</t>
+    <t>德州仪器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E9%80%9A</t>
@@ -1313,55 +1301,55 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E6%B3%95%E5%8D%8A%E5%B0%8E%E9%AB%94</t>
   </si>
   <si>
-    <t>意法半導體</t>
+    <t>意法半导体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E8%96%A9%E9%9B%BB%E5%AD%90</t>
   </si>
   <si>
-    <t>瑞薩電子</t>
+    <t>瑞萨电子</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E5%A8%81%E5%8D%8A%E5%B0%8E%E9%AB%94</t>
   </si>
   <si>
-    <t>超威半導體</t>
+    <t>超威半导体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%81%89%E9%81%94</t>
   </si>
   <si>
-    <t>英偉達</t>
+    <t>英伟达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%80%9D%E5%8D%8A%E5%B0%8E%E9%AB%94</t>
   </si>
   <si>
-    <t>海思半導體</t>
+    <t>海思半导体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E7%99%BC%E7%A7%91%E6%8A%80</t>
   </si>
   <si>
-    <t>聯發科技</t>
+    <t>联发科技</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E6%80%9D%E5%8D%A1%E7%88%BE</t>
   </si>
   <si>
-    <t>飛思卡爾</t>
+    <t>飞思卡尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/LG%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>LG集團</t>
+    <t>LG集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E9%A3%9B%E5%87%8C</t>
   </si>
   <si>
-    <t>英飛凌</t>
+    <t>英飞凌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%BB%A1%E7%94%B5%E5%AD%90%E7%A7%91%E6%8A%80%E5%85%AC%E5%8F%B8</t>
@@ -1379,7 +1367,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%BE%E4%B8%8B%E9%9B%BB%E5%99%A8</t>
   </si>
   <si>
-    <t>松下電器</t>
+    <t>松下电器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%A3%AE%E7%BE%8E%E5%8D%8A%E5%AF%BC%E4%BD%93</t>
@@ -1391,7 +1379,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BF%AB%E6%8D%B7%E5%8D%8A%E5%B0%8E%E9%AB%94%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>快捷半導體公司</t>
+    <t>快捷半导体公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/LSI%E5%85%AC%E5%8F%B8</t>
@@ -1403,37 +1391,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E8%AC%80%E6%8E%A7%E8%82%A1</t>
   </si>
   <si>
-    <t>安謀控股</t>
+    <t>安谋控股</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%B6%E5%9C%93%E4%BB%A3%E5%B7%A5</t>
   </si>
   <si>
-    <t>晶圓代工</t>
+    <t>晶圆代工</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%A9%8D%E9%9B%BB</t>
   </si>
   <si>
-    <t>台積電</t>
+    <t>台积电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E8%8F%AF%E9%9B%BB%E5%AD%90</t>
   </si>
   <si>
-    <t>聯華電子</t>
+    <t>联华电子</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E7%BE%85%E6%96%B9%E5%BE%B7</t>
   </si>
   <si>
-    <t>格羅方德</t>
+    <t>格罗方德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8A%AF%E5%9C%8B%E9%9A%9B</t>
   </si>
   <si>
-    <t>中芯國際</t>
+    <t>中芯国际</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%9B%E6%99%B6%E7%A7%91%E6%8A%80</t>
@@ -1463,7 +1451,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E9%A6%AC%E9%81%9C%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>亞馬遜公司</t>
+    <t>亚马逊公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/EBay</t>
@@ -1475,13 +1463,13 @@
     <t>https://zh.wikipedia.org/wiki/Priceline%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>Priceline集團</t>
+    <t>Priceline集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%AC%E6%9D%B1%E5%95%86%E5%9F%8E</t>
   </si>
   <si>
-    <t>京東商城</t>
+    <t>京东商城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Groupon</t>
@@ -1499,13 +1487,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A8%82%E5%A4%A9_(Rakuten)</t>
   </si>
   <si>
-    <t>樂天 (Rakuten)</t>
+    <t>乐天 (Rakuten)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%93%E9%80%94%E9%B7%B9</t>
   </si>
   <si>
-    <t>貓途鷹</t>
+    <t>猫途鹰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Expedia%E5%85%AC%E5%8F%B8</t>
@@ -1577,7 +1565,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E7%BE%A4%E7%B6%B2%E8%B7%AF</t>
   </si>
   <si>
-    <t>社群網路</t>
+    <t>社群网路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Facebook</t>
@@ -1589,7 +1577,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A8%B0%E8%A8%8A</t>
   </si>
   <si>
-    <t>騰訊</t>
+    <t>腾讯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Twitter</t>
@@ -1601,7 +1589,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A0%98%E8%8B%B1</t>
   </si>
   <si>
-    <t>領英</t>
+    <t>领英</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%B5%AA%E5%BE%AE%E5%8D%9A</t>
@@ -1619,7 +1607,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A5%E5%8F%A3%E7%B6%B2%E7%AB%99</t>
   </si>
   <si>
-    <t>入口網站</t>
+    <t>入口网站</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%91%E6%98%93</t>
@@ -1655,7 +1643,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E9%AB%94</t>
   </si>
   <si>
-    <t>軟體</t>
+    <t>软体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/SAP%E5%85%AC%E5%8F%B8</t>
@@ -1667,7 +1655,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E9%96%80%E9%90%B5%E5%85%8B</t>
   </si>
   <si>
-    <t>賽門鐵克</t>
+    <t>赛门铁克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/VMware</t>
@@ -1697,13 +1685,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%A8%E5%8B%A2%E7%A7%91%E6%8A%80</t>
   </si>
   <si>
-    <t>趨勢科技</t>
+    <t>趋势科技</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%8A%E9%80%A3%E7%A7%91%E6%8A%80</t>
   </si>
   <si>
-    <t>訊連科技</t>
+    <t>讯连科技</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%B0%94</t>
@@ -1721,7 +1709,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%A8%8A%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>電訊公司</t>
+    <t>电讯公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E7%A7%BB%E5%8A%A8</t>
@@ -1739,7 +1727,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E9%8A%80</t>
   </si>
   <si>
-    <t>軟銀</t>
+    <t>软银</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E8%BE%BE%E4%B8%B0</t>
@@ -1757,13 +1745,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E9%9B%BB%E4%BF%A1</t>
   </si>
   <si>
-    <t>中國電信</t>
+    <t>中国电信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E9%9B%BB%E4%BF%A1</t>
   </si>
   <si>
-    <t>西班牙電信</t>
+    <t>西班牙电信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Orange_(%E5%85%AC%E5%8F%B8)</t>
@@ -1787,19 +1775,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E9%9B%BB%E4%BF%A1</t>
   </si>
   <si>
-    <t>英國電信</t>
+    <t>英国电信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9%E9%9B%BB%E4%BF%A1</t>
   </si>
   <si>
-    <t>義大利電信</t>
+    <t>义大利电信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E%E9%9B%BB%E4%BF%A1</t>
   </si>
   <si>
-    <t>澳大利亞電信</t>
+    <t>澳大利亚电信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%A9%E5%9B%BD%E7%94%B5%E4%BF%A1</t>
@@ -1835,19 +1823,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E6%97%BA%E8%BF%AA</t>
   </si>
   <si>
-    <t>維旺迪</t>
+    <t>维旺迪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E9%9B%BB%E4%BF%A1</t>
   </si>
   <si>
-    <t>中華電信</t>
+    <t>中华电信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD%E7%9A%87%E5%AE%B6%E9%9B%BB%E4%BF%A1</t>
   </si>
   <si>
-    <t>荷蘭皇家電信</t>
+    <t>荷兰皇家电信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NTT_DOCOMO</t>
@@ -1877,13 +1865,13 @@
     <t>https://zh.wikipedia.org/wiki/3_(%E9%9B%BB%E8%A8%8A)</t>
   </si>
   <si>
-    <t>3 (電訊)</t>
+    <t>3 (电讯)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1%E9%9B%BB%E4%BF%A1</t>
   </si>
   <si>
-    <t>新加坡電信</t>
+    <t>新加坡电信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Etisalat</t>
@@ -1907,7 +1895,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%A8%8A%E7%9B%88%E7%A7%91</t>
   </si>
   <si>
-    <t>電訊盈科</t>
+    <t>电讯盈科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A8%E8%A7%86%E6%9A%B4%E9%9B%AA</t>
@@ -1919,7 +1907,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E9%81%94%E5%88%A9</t>
   </si>
   <si>
-    <t>雅達利</t>
+    <t>雅达利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%87%E4%BB%A3%E5%8D%97%E6%A2%A6%E5%AE%AB%E5%A8%B1%E4%B9%90</t>
@@ -1961,7 +1949,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%A8%82%E7%BE%8E</t>
   </si>
   <si>
-    <t>科樂美</t>
+    <t>科乐美</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NCsoft</t>
@@ -2003,9 +1991,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%85%BE%E8%AE%AF</t>
   </si>
   <si>
-    <t>腾讯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%B2%E7%A2%A7</t>
   </si>
   <si>
@@ -2015,7 +2000,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%B4%8D%E5%85%84%E5%BC%9F%E4%BA%92%E5%8B%95%E5%A8%9B%E6%A8%82</t>
   </si>
   <si>
-    <t>華納兄弟互動娛樂</t>
+    <t>华纳兄弟互动娱乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%83%A0%E6%99%AE</t>
@@ -7093,7 +7078,7 @@
         <v>319</v>
       </c>
       <c r="F163" t="s">
-        <v>320</v>
+        <v>234</v>
       </c>
       <c r="G163" t="n">
         <v>8</v>
@@ -7119,10 +7104,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>320</v>
+      </c>
+      <c r="F164" t="s">
         <v>321</v>
-      </c>
-      <c r="F164" t="s">
-        <v>322</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7148,10 +7133,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>322</v>
+      </c>
+      <c r="F165" t="s">
         <v>323</v>
-      </c>
-      <c r="F165" t="s">
-        <v>324</v>
       </c>
       <c r="G165" t="n">
         <v>4</v>
@@ -7177,10 +7162,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>324</v>
+      </c>
+      <c r="F166" t="s">
         <v>325</v>
-      </c>
-      <c r="F166" t="s">
-        <v>326</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7206,10 +7191,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>326</v>
+      </c>
+      <c r="F167" t="s">
         <v>327</v>
-      </c>
-      <c r="F167" t="s">
-        <v>328</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7235,10 +7220,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>328</v>
+      </c>
+      <c r="F168" t="s">
         <v>329</v>
-      </c>
-      <c r="F168" t="s">
-        <v>330</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7293,10 +7278,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>330</v>
+      </c>
+      <c r="F170" t="s">
         <v>331</v>
-      </c>
-      <c r="F170" t="s">
-        <v>332</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7322,10 +7307,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>332</v>
+      </c>
+      <c r="F171" t="s">
         <v>333</v>
-      </c>
-      <c r="F171" t="s">
-        <v>334</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7351,10 +7336,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>334</v>
+      </c>
+      <c r="F172" t="s">
         <v>335</v>
-      </c>
-      <c r="F172" t="s">
-        <v>336</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7380,10 +7365,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>336</v>
+      </c>
+      <c r="F173" t="s">
         <v>337</v>
-      </c>
-      <c r="F173" t="s">
-        <v>338</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7409,10 +7394,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>338</v>
+      </c>
+      <c r="F174" t="s">
         <v>339</v>
-      </c>
-      <c r="F174" t="s">
-        <v>340</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7438,10 +7423,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>340</v>
+      </c>
+      <c r="F175" t="s">
         <v>341</v>
-      </c>
-      <c r="F175" t="s">
-        <v>342</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7467,10 +7452,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>342</v>
+      </c>
+      <c r="F176" t="s">
         <v>343</v>
-      </c>
-      <c r="F176" t="s">
-        <v>344</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7496,10 +7481,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>344</v>
+      </c>
+      <c r="F177" t="s">
         <v>345</v>
-      </c>
-      <c r="F177" t="s">
-        <v>346</v>
       </c>
       <c r="G177" t="n">
         <v>2</v>
@@ -7525,10 +7510,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>346</v>
+      </c>
+      <c r="F178" t="s">
         <v>347</v>
-      </c>
-      <c r="F178" t="s">
-        <v>348</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7554,10 +7539,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>348</v>
+      </c>
+      <c r="F179" t="s">
         <v>349</v>
-      </c>
-      <c r="F179" t="s">
-        <v>350</v>
       </c>
       <c r="G179" t="n">
         <v>2</v>
@@ -7583,10 +7568,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>350</v>
+      </c>
+      <c r="F180" t="s">
         <v>351</v>
-      </c>
-      <c r="F180" t="s">
-        <v>352</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7612,10 +7597,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>352</v>
+      </c>
+      <c r="F181" t="s">
         <v>353</v>
-      </c>
-      <c r="F181" t="s">
-        <v>354</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7641,10 +7626,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>354</v>
+      </c>
+      <c r="F182" t="s">
         <v>355</v>
-      </c>
-      <c r="F182" t="s">
-        <v>356</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7670,10 +7655,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>356</v>
+      </c>
+      <c r="F183" t="s">
         <v>357</v>
-      </c>
-      <c r="F183" t="s">
-        <v>358</v>
       </c>
       <c r="G183" t="n">
         <v>3</v>
@@ -7699,10 +7684,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>358</v>
+      </c>
+      <c r="F184" t="s">
         <v>359</v>
-      </c>
-      <c r="F184" t="s">
-        <v>360</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7728,10 +7713,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>360</v>
+      </c>
+      <c r="F185" t="s">
         <v>361</v>
-      </c>
-      <c r="F185" t="s">
-        <v>362</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7757,10 +7742,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>362</v>
+      </c>
+      <c r="F186" t="s">
         <v>363</v>
-      </c>
-      <c r="F186" t="s">
-        <v>364</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7786,10 +7771,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>364</v>
+      </c>
+      <c r="F187" t="s">
         <v>365</v>
-      </c>
-      <c r="F187" t="s">
-        <v>366</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7815,10 +7800,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>366</v>
+      </c>
+      <c r="F188" t="s">
         <v>367</v>
-      </c>
-      <c r="F188" t="s">
-        <v>368</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7844,10 +7829,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>368</v>
+      </c>
+      <c r="F189" t="s">
         <v>369</v>
-      </c>
-      <c r="F189" t="s">
-        <v>370</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7873,10 +7858,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>370</v>
+      </c>
+      <c r="F190" t="s">
         <v>371</v>
-      </c>
-      <c r="F190" t="s">
-        <v>372</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7902,10 +7887,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>372</v>
+      </c>
+      <c r="F191" t="s">
         <v>373</v>
-      </c>
-      <c r="F191" t="s">
-        <v>374</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7931,10 +7916,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>374</v>
+      </c>
+      <c r="F192" t="s">
         <v>375</v>
-      </c>
-      <c r="F192" t="s">
-        <v>376</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7960,10 +7945,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>376</v>
+      </c>
+      <c r="F193" t="s">
         <v>377</v>
-      </c>
-      <c r="F193" t="s">
-        <v>378</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7989,10 +7974,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>350</v>
+      </c>
+      <c r="F194" t="s">
         <v>351</v>
-      </c>
-      <c r="F194" t="s">
-        <v>352</v>
       </c>
       <c r="G194" t="n">
         <v>2</v>
@@ -8018,10 +8003,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>378</v>
+      </c>
+      <c r="F195" t="s">
         <v>379</v>
-      </c>
-      <c r="F195" t="s">
-        <v>380</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8047,10 +8032,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>380</v>
+      </c>
+      <c r="F196" t="s">
         <v>381</v>
-      </c>
-      <c r="F196" t="s">
-        <v>382</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8076,10 +8061,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>382</v>
+      </c>
+      <c r="F197" t="s">
         <v>383</v>
-      </c>
-      <c r="F197" t="s">
-        <v>384</v>
       </c>
       <c r="G197" t="n">
         <v>2</v>
@@ -8105,10 +8090,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>384</v>
+      </c>
+      <c r="F198" t="s">
         <v>385</v>
-      </c>
-      <c r="F198" t="s">
-        <v>386</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8134,10 +8119,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>386</v>
+      </c>
+      <c r="F199" t="s">
         <v>387</v>
-      </c>
-      <c r="F199" t="s">
-        <v>388</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8163,10 +8148,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
+        <v>388</v>
+      </c>
+      <c r="F200" t="s">
         <v>389</v>
-      </c>
-      <c r="F200" t="s">
-        <v>390</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8192,10 +8177,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>390</v>
+      </c>
+      <c r="F201" t="s">
         <v>391</v>
-      </c>
-      <c r="F201" t="s">
-        <v>392</v>
       </c>
       <c r="G201" t="n">
         <v>2</v>
@@ -8221,10 +8206,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F202" t="s">
-        <v>394</v>
+        <v>150</v>
       </c>
       <c r="G202" t="n">
         <v>3</v>
@@ -8250,10 +8235,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F203" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8279,10 +8264,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F204" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8308,10 +8293,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F205" t="s">
-        <v>400</v>
+        <v>278</v>
       </c>
       <c r="G205" t="n">
         <v>2</v>
@@ -8337,10 +8322,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F206" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8366,10 +8351,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F207" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8395,10 +8380,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F208" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8424,10 +8409,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F209" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8453,10 +8438,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F210" t="s">
-        <v>410</v>
+        <v>236</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8482,10 +8467,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F211" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8511,10 +8496,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F212" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8540,10 +8525,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F213" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8569,10 +8554,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F214" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8598,10 +8583,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F215" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G215" t="n">
         <v>2</v>
@@ -8656,10 +8641,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F217" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8685,10 +8670,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F218" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8714,10 +8699,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F219" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8743,10 +8728,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F220" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8772,10 +8757,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F221" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8801,10 +8786,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F222" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8830,10 +8815,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F223" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8859,10 +8844,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F224" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8888,10 +8873,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F225" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8917,10 +8902,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F226" t="s">
-        <v>410</v>
+        <v>236</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8946,10 +8931,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F227" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8975,10 +8960,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F228" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9004,10 +8989,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F229" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9033,10 +9018,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F230" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G230" t="n">
         <v>2</v>
@@ -9062,10 +9047,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F231" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9091,10 +9076,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F232" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9120,10 +9105,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F233" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9149,10 +9134,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F234" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9178,10 +9163,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F235" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9207,10 +9192,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F236" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9236,10 +9221,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F237" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9265,10 +9250,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="F238" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9294,10 +9279,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F239" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9323,10 +9308,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F240" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9352,10 +9337,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F241" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9381,10 +9366,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F242" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9410,10 +9395,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F243" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9439,10 +9424,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F244" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9468,10 +9453,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F245" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G245" t="n">
         <v>3</v>
@@ -9497,10 +9482,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F246" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9526,10 +9511,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F247" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9555,10 +9540,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F248" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9584,10 +9569,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F249" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9613,10 +9598,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F250" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9642,10 +9627,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F251" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9671,10 +9656,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F252" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9700,10 +9685,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="F253" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9729,10 +9714,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F254" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9758,10 +9743,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F255" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9787,10 +9772,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="F256" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9816,10 +9801,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="F257" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9845,10 +9830,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="F258" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9874,10 +9859,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="F259" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9903,10 +9888,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="F260" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="G260" t="n">
         <v>2</v>
@@ -9932,10 +9917,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="F261" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9961,10 +9946,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="F262" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9990,10 +9975,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F263" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10019,10 +10004,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="F264" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10048,10 +10033,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F265" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10077,10 +10062,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F266" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10106,10 +10091,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F267" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10135,10 +10120,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F268" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10164,10 +10149,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F269" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10193,10 +10178,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="F270" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10222,10 +10207,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="F271" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10251,10 +10236,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="F272" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10280,10 +10265,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="F273" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10309,10 +10294,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="F274" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10338,10 +10323,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="F275" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10367,10 +10352,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="F276" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10396,10 +10381,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="F277" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10425,10 +10410,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="F278" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10454,10 +10439,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F279" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="G279" t="n">
         <v>2</v>
@@ -10483,10 +10468,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="F280" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="G280" t="n">
         <v>3</v>
@@ -10512,10 +10497,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="F281" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10541,10 +10526,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="F282" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10570,10 +10555,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="F283" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10599,10 +10584,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="F284" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10628,10 +10613,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="F285" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10657,10 +10642,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="F286" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10686,10 +10671,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="F287" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10715,10 +10700,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="F288" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10744,10 +10729,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="F289" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10773,10 +10758,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F290" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10802,10 +10787,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="F291" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10831,10 +10816,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="F292" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -10860,10 +10845,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
+        <v>382</v>
+      </c>
+      <c r="F293" t="s">
         <v>383</v>
-      </c>
-      <c r="F293" t="s">
-        <v>384</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -10889,10 +10874,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="F294" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -10918,10 +10903,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="F295" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -10947,10 +10932,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="F296" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -10976,10 +10961,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F297" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11005,10 +10990,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="F298" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11034,10 +11019,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="F299" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11063,10 +11048,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="F300" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="G300" t="n">
         <v>2</v>
@@ -11092,10 +11077,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="F301" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11121,10 +11106,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="F302" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11150,10 +11135,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="F303" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11179,10 +11164,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="F304" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11208,10 +11193,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="F305" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11237,10 +11222,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="F306" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11266,10 +11251,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="F307" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11295,10 +11280,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="F308" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11324,10 +11309,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="F309" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11353,10 +11338,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="F310" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11382,10 +11367,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="F311" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11411,10 +11396,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="F312" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11440,10 +11425,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="F313" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11469,10 +11454,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="F314" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11498,10 +11483,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="F315" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11527,10 +11512,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="F316" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11556,10 +11541,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="F317" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="G317" t="n">
         <v>2</v>
@@ -11585,10 +11570,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="F318" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11614,10 +11599,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="F319" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11643,10 +11628,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="F320" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11672,10 +11657,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="F321" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -11701,10 +11686,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="F322" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -11730,10 +11715,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="F323" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -11759,10 +11744,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="F324" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -11788,10 +11773,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="F325" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -11817,10 +11802,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="F326" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -11846,10 +11831,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="F327" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -11875,10 +11860,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="F328" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -11904,10 +11889,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="F329" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -11933,10 +11918,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="F330" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -11962,10 +11947,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="F331" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -11991,10 +11976,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="F332" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12020,10 +12005,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="F333" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12049,10 +12034,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="F334" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12078,10 +12063,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="F335" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12107,10 +12092,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="F336" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12136,10 +12121,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="F337" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12165,10 +12150,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="F338" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12194,10 +12179,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="F339" t="s">
-        <v>662</v>
+        <v>520</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12223,10 +12208,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="F340" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12252,10 +12237,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="F341" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12281,10 +12266,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="F342" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="G342" t="n">
         <v>7</v>
@@ -12310,10 +12295,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="F343" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
